--- a/Code/Results/Cases/Case_1_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9358287438334401</v>
+        <v>0.9828542969916043</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1316269522744449</v>
+        <v>0.2790060750674499</v>
       </c>
       <c r="E2">
-        <v>0.1006041840778824</v>
+        <v>0.2628485844196806</v>
       </c>
       <c r="F2">
-        <v>0.6106343799604161</v>
+        <v>1.302266585538554</v>
       </c>
       <c r="G2">
-        <v>0.349859648483843</v>
+        <v>0.652325958620132</v>
       </c>
       <c r="H2">
-        <v>0.3063386287499625</v>
+        <v>0.7727522898643855</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1232400374011346</v>
+        <v>0.3174931185742711</v>
       </c>
       <c r="K2">
-        <v>1.102495526201466</v>
+        <v>0.3335988923132902</v>
       </c>
       <c r="L2">
-        <v>0.2440840575510634</v>
+        <v>0.1276347857931341</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9637385888292371</v>
+        <v>1.916304565947325</v>
       </c>
       <c r="O2">
-        <v>1.331125779068415</v>
+        <v>2.8414267891999</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8330383205527596</v>
+        <v>0.9580547559902755</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1256151573514757</v>
+        <v>0.278785218416651</v>
       </c>
       <c r="E3">
-        <v>0.101612873436725</v>
+        <v>0.264423178977264</v>
       </c>
       <c r="F3">
-        <v>0.5961381263485208</v>
+        <v>1.306937131406613</v>
       </c>
       <c r="G3">
-        <v>0.3384799534171989</v>
+        <v>0.6542885991542775</v>
       </c>
       <c r="H3">
-        <v>0.3060439750431385</v>
+        <v>0.7770238932122311</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1270103439475463</v>
+        <v>0.3198960946071354</v>
       </c>
       <c r="K3">
-        <v>0.9674292958421518</v>
+        <v>0.2909906278841277</v>
       </c>
       <c r="L3">
-        <v>0.2123938564978829</v>
+        <v>0.1185356960727404</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.001077576881602</v>
+        <v>1.933150029894559</v>
       </c>
       <c r="O3">
-        <v>1.30606223923472</v>
+        <v>2.85428989063206</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7704056005588882</v>
+        <v>0.9432028571903288</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1220454905290325</v>
+        <v>0.2787456415265339</v>
       </c>
       <c r="E4">
-        <v>0.1023441227204209</v>
+        <v>0.2654715403786536</v>
       </c>
       <c r="F4">
-        <v>0.5881861468653469</v>
+        <v>1.310390589078438</v>
       </c>
       <c r="G4">
-        <v>0.3321555299059966</v>
+        <v>0.6558534163982159</v>
       </c>
       <c r="H4">
-        <v>0.3062898133470711</v>
+        <v>0.7799290108576145</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1294513190678828</v>
+        <v>0.3214592418078386</v>
       </c>
       <c r="K4">
-        <v>0.8843568205860208</v>
+        <v>0.2647389308204993</v>
       </c>
       <c r="L4">
-        <v>0.1929566402940566</v>
+        <v>0.1129727470878095</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.025050097623389</v>
+        <v>1.944061902427041</v>
       </c>
       <c r="O4">
-        <v>1.292962890626612</v>
+        <v>2.863533033390681</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7449946051985989</v>
+        <v>0.9372456096342887</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.120620548236225</v>
+        <v>0.278753743811798</v>
       </c>
       <c r="E5">
-        <v>0.1026697831189924</v>
+        <v>0.2659193022151278</v>
       </c>
       <c r="F5">
-        <v>0.5851757151019754</v>
+        <v>1.311945382481511</v>
       </c>
       <c r="G5">
-        <v>0.3297377778686013</v>
+        <v>0.6565816047809818</v>
       </c>
       <c r="H5">
-        <v>0.306494184889452</v>
+        <v>0.7811839649513033</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1304773556951373</v>
+        <v>0.3221183247255919</v>
       </c>
       <c r="K5">
-        <v>0.85046222433823</v>
+        <v>0.2540192306992992</v>
       </c>
       <c r="L5">
-        <v>0.1850391742141539</v>
+        <v>0.1107119981586067</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.035077250445916</v>
+        <v>1.94865167845947</v>
       </c>
       <c r="O5">
-        <v>1.288178867562209</v>
+        <v>2.86763824758971</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7407816702969683</v>
+        <v>0.9362621727317446</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.120385708776233</v>
+        <v>0.2787565550637296</v>
       </c>
       <c r="E6">
-        <v>0.1027255165541607</v>
+        <v>0.2659948947939128</v>
       </c>
       <c r="F6">
-        <v>0.5846894881130709</v>
+        <v>1.312212468024335</v>
       </c>
       <c r="G6">
-        <v>0.3293457419260335</v>
+        <v>0.6567079881492717</v>
       </c>
       <c r="H6">
-        <v>0.3065343246987808</v>
+        <v>0.7813966460143362</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1306496095408711</v>
+        <v>0.3222290999376112</v>
       </c>
       <c r="K6">
-        <v>0.8448313436936701</v>
+        <v>0.2522379300091586</v>
       </c>
       <c r="L6">
-        <v>0.1837246357163878</v>
+        <v>0.1103369821801721</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.036757703249162</v>
+        <v>1.949422453034426</v>
       </c>
       <c r="O6">
-        <v>1.287417330679105</v>
+        <v>2.868340372509095</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.770062455187599</v>
+        <v>0.9431221300049231</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1220261539998475</v>
+        <v>0.2787456525789835</v>
       </c>
       <c r="E7">
-        <v>0.1023484032632975</v>
+        <v>0.2654774958095185</v>
       </c>
       <c r="F7">
-        <v>0.5881446266058958</v>
+        <v>1.310410960158542</v>
       </c>
       <c r="G7">
-        <v>0.3321222866774747</v>
+        <v>0.6558628704513012</v>
       </c>
       <c r="H7">
-        <v>0.3062921517374662</v>
+        <v>0.7799456476141557</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1294650302146767</v>
+        <v>0.3214680409548301</v>
       </c>
       <c r="K7">
-        <v>0.883899883956758</v>
+        <v>0.264594448992284</v>
       </c>
       <c r="L7">
-        <v>0.192849851353003</v>
+        <v>0.1129422325022915</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.025184288406853</v>
+        <v>1.944123222216433</v>
       </c>
       <c r="O7">
-        <v>1.292896156252851</v>
+        <v>2.863587026522538</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9002814348645813</v>
+        <v>0.9742259665208621</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1295283226835977</v>
+        <v>0.2789100416739814</v>
       </c>
       <c r="E8">
-        <v>0.1009284652270086</v>
+        <v>0.2633746012924778</v>
       </c>
       <c r="F8">
-        <v>0.6054339160960254</v>
+        <v>1.303755539026618</v>
       </c>
       <c r="G8">
-        <v>0.3457939740410296</v>
+        <v>0.6529280408670033</v>
       </c>
       <c r="H8">
-        <v>0.3061465385368294</v>
+        <v>0.7741665992227382</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1245136685883903</v>
+        <v>0.3183034800431601</v>
       </c>
       <c r="K8">
-        <v>1.055950022739268</v>
+        <v>0.3189266741529764</v>
       </c>
       <c r="L8">
-        <v>0.233151829426518</v>
+        <v>0.1244925588156462</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9763929061802301</v>
+        <v>1.921994910343169</v>
       </c>
       <c r="O8">
-        <v>1.321995271732519</v>
+        <v>2.845582984602984</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.159877646695378</v>
+        <v>1.038170166422731</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1452457553891904</v>
+        <v>0.2799909705117045</v>
       </c>
       <c r="E9">
-        <v>0.09905393397018258</v>
+        <v>0.2598962250277719</v>
       </c>
       <c r="F9">
-        <v>0.6472695223947014</v>
+        <v>1.295343891537136</v>
       </c>
       <c r="G9">
-        <v>0.3782014980599371</v>
+        <v>0.6500256469634991</v>
       </c>
       <c r="H9">
-        <v>0.309394813540024</v>
+        <v>0.7650698913564753</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1158203908550401</v>
+        <v>0.3127922229783078</v>
       </c>
       <c r="K9">
-        <v>1.392540672763118</v>
+        <v>0.4247305855384411</v>
       </c>
       <c r="L9">
-        <v>0.3124401030390942</v>
+        <v>0.147325768263201</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8892434850030959</v>
+        <v>1.88310876670689</v>
       </c>
       <c r="O9">
-        <v>1.398254749460563</v>
+        <v>2.820938202118924</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.353818410367438</v>
+        <v>1.086917821664144</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1574668767771925</v>
+        <v>0.2812433604755284</v>
       </c>
       <c r="E10">
-        <v>0.09826321955153539</v>
+        <v>0.2577318198588809</v>
       </c>
       <c r="F10">
-        <v>0.6834309208629392</v>
+        <v>1.291982908361405</v>
       </c>
       <c r="G10">
-        <v>0.4059189391956011</v>
+        <v>0.6496310870635966</v>
       </c>
       <c r="H10">
-        <v>0.3141515243233357</v>
+        <v>0.7597442012310864</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1100766134863616</v>
+        <v>0.3091643025903323</v>
       </c>
       <c r="K10">
-        <v>1.639845231177901</v>
+        <v>0.5019837514771268</v>
       </c>
       <c r="L10">
-        <v>0.370990276639958</v>
+        <v>0.16420543944038</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8307435578420588</v>
+        <v>1.857279505018294</v>
       </c>
       <c r="O10">
-        <v>1.467488073918815</v>
+        <v>2.809317132823622</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.442894327818721</v>
+        <v>1.109472157096661</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.163186889541663</v>
+        <v>0.2819117356934413</v>
       </c>
       <c r="E11">
-        <v>0.09803818038823664</v>
+        <v>0.2568316289921828</v>
       </c>
       <c r="F11">
-        <v>0.7011973695925846</v>
+        <v>1.291064132245609</v>
       </c>
       <c r="G11">
-        <v>0.4194927395483035</v>
+        <v>0.6498287231699891</v>
       </c>
       <c r="H11">
-        <v>0.3168807348426412</v>
+        <v>0.7576150773379737</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1076086980390176</v>
+        <v>0.307604869192506</v>
       </c>
       <c r="K11">
-        <v>1.752472634446889</v>
+        <v>0.5370180480360887</v>
       </c>
       <c r="L11">
-        <v>0.3977243809322175</v>
+        <v>0.1719055547347637</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8054073902238201</v>
+        <v>1.84612258162532</v>
       </c>
       <c r="O11">
-        <v>1.502203414277375</v>
+        <v>2.80543590072574</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.476760230094072</v>
+        <v>1.118066730227866</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1653772012532073</v>
+        <v>0.2821789396567169</v>
       </c>
       <c r="E12">
-        <v>0.09797296718440762</v>
+        <v>0.2565028494929127</v>
       </c>
       <c r="F12">
-        <v>0.7081264530601601</v>
+        <v>1.290803777618962</v>
       </c>
       <c r="G12">
-        <v>0.4247817524804844</v>
+        <v>0.649957757837015</v>
       </c>
       <c r="H12">
-        <v>0.3179999836739853</v>
+        <v>0.7568509533788443</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1066954907748254</v>
+        <v>0.3070273942970125</v>
       </c>
       <c r="K12">
-        <v>1.795150174803211</v>
+        <v>0.5502683652751159</v>
       </c>
       <c r="L12">
-        <v>0.407865043241415</v>
+        <v>0.1748243114716246</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7960035614482983</v>
+        <v>1.841982916813667</v>
       </c>
       <c r="O12">
-        <v>1.51584335527545</v>
+        <v>2.804167988624386</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.469460402413603</v>
+        <v>1.11621335688352</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1649043797288101</v>
+        <v>0.282120766493847</v>
       </c>
       <c r="E13">
-        <v>0.09798611179569328</v>
+        <v>0.2565731202941777</v>
       </c>
       <c r="F13">
-        <v>0.7066249987265181</v>
+        <v>1.290855957890031</v>
       </c>
       <c r="G13">
-        <v>0.4236358781776488</v>
+        <v>0.6499275581897166</v>
       </c>
       <c r="H13">
-        <v>0.3177550455438052</v>
+        <v>0.7570136487861703</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1068912091368652</v>
+        <v>0.3071511839217909</v>
       </c>
       <c r="K13">
-        <v>1.785957396569955</v>
+        <v>0.5474154149846413</v>
       </c>
       <c r="L13">
-        <v>0.4056802665803616</v>
+        <v>0.1741955795796031</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7980202597074317</v>
+        <v>1.842870678188358</v>
       </c>
       <c r="O13">
-        <v>1.512883268445222</v>
+        <v>2.804432083850543</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.445677721131233</v>
+        <v>1.110178165053583</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1633665944872007</v>
+        <v>0.2819334365131425</v>
       </c>
       <c r="E14">
-        <v>0.09803241056664547</v>
+        <v>0.2568043377351383</v>
       </c>
       <c r="F14">
-        <v>0.7017633235343865</v>
+        <v>1.291040958755268</v>
       </c>
       <c r="G14">
-        <v>0.4199248252184873</v>
+        <v>0.6498382530049156</v>
       </c>
       <c r="H14">
-        <v>0.316971070952178</v>
+        <v>0.7575513685537345</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1075331373547321</v>
+        <v>0.3075570986206948</v>
       </c>
       <c r="K14">
-        <v>1.75598312255272</v>
+        <v>0.5381084930853319</v>
       </c>
       <c r="L14">
-        <v>0.3985583014312084</v>
+        <v>0.1721456258125897</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8046298737828117</v>
+        <v>1.845780301216404</v>
       </c>
       <c r="O14">
-        <v>1.503315496776423</v>
+        <v>2.805327545354061</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.43112807518915</v>
+        <v>1.10648841202962</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1624278529312733</v>
+        <v>0.2818205259174391</v>
       </c>
       <c r="E15">
-        <v>0.09806339457086466</v>
+        <v>0.2569475402713213</v>
       </c>
       <c r="F15">
-        <v>0.6988119925563936</v>
+        <v>1.291165675650944</v>
       </c>
       <c r="G15">
-        <v>0.41767140179725</v>
+        <v>0.6497906076080824</v>
       </c>
       <c r="H15">
-        <v>0.3165021687036642</v>
+        <v>0.7578862213826767</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1079291309175829</v>
+        <v>0.3078074316403541</v>
       </c>
       <c r="K15">
-        <v>1.737626958087986</v>
+        <v>0.5324055738034588</v>
       </c>
       <c r="L15">
-        <v>0.3941981957990492</v>
+        <v>0.1708903404813924</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8087034661969916</v>
+        <v>1.847573626233554</v>
       </c>
       <c r="O15">
-        <v>1.497520240026347</v>
+        <v>2.805902317767107</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.348015260356362</v>
+        <v>1.08545140225155</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1570963907538641</v>
+        <v>0.2812016588035675</v>
       </c>
       <c r="E16">
-        <v>0.09828069013813234</v>
+        <v>0.2577923449995883</v>
       </c>
       <c r="F16">
-        <v>0.6822973431106405</v>
+        <v>1.292055215567572</v>
       </c>
       <c r="G16">
-        <v>0.4050521312816926</v>
+        <v>0.6496257567291792</v>
       </c>
       <c r="H16">
-        <v>0.3139849155636938</v>
+        <v>0.7598892444262049</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1102408561912807</v>
+        <v>0.3092680426341712</v>
       </c>
       <c r="K16">
-        <v>1.632488139171045</v>
+        <v>0.4996919249666121</v>
       </c>
       <c r="L16">
-        <v>0.369245370018831</v>
+        <v>0.1637026339619041</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8324255950905375</v>
+        <v>1.858020563818052</v>
       </c>
       <c r="O16">
-        <v>1.465286750979431</v>
+        <v>2.809599036607693</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.29725484521316</v>
+        <v>1.072642372244957</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1538676545883533</v>
+        <v>0.2808472139184204</v>
       </c>
       <c r="E17">
-        <v>0.09844892971188024</v>
+        <v>0.2583321996384331</v>
       </c>
       <c r="F17">
-        <v>0.6725116462729162</v>
+        <v>1.292757070994426</v>
       </c>
       <c r="G17">
-        <v>0.3975648088764387</v>
+        <v>0.649621191214564</v>
       </c>
       <c r="H17">
-        <v>0.3125885539652984</v>
+        <v>0.7611931616103078</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1116964962198619</v>
+        <v>0.3101873496463234</v>
       </c>
       <c r="K17">
-        <v>1.568028159653238</v>
+        <v>0.4795947877655919</v>
       </c>
       <c r="L17">
-        <v>0.3539649622877761</v>
+        <v>0.1592985672754423</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8473099479208415</v>
+        <v>1.86458125517931</v>
       </c>
       <c r="O17">
-        <v>1.44635885013318</v>
+        <v>2.81222659681049</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.268138140391613</v>
+        <v>1.065310653599511</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1520256098090016</v>
+        <v>0.280652637532981</v>
       </c>
       <c r="E18">
-        <v>0.09855833147655169</v>
+        <v>0.2586506566766626</v>
       </c>
       <c r="F18">
-        <v>0.6670063237249906</v>
+        <v>1.293218200447804</v>
       </c>
       <c r="G18">
-        <v>0.3933484876026512</v>
+        <v>0.6496540640695372</v>
       </c>
       <c r="H18">
-        <v>0.3118383358229124</v>
+        <v>0.7619707765023946</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.112547355065459</v>
+        <v>0.3107246706520961</v>
       </c>
       <c r="K18">
-        <v>1.530963848437551</v>
+        <v>0.4680252760202563</v>
       </c>
       <c r="L18">
-        <v>0.3451852502392967</v>
+        <v>0.156767497068401</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8559906732578497</v>
+        <v>1.868410603837887</v>
       </c>
       <c r="O18">
-        <v>1.43577322295323</v>
+        <v>2.813870183614142</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.258292986893281</v>
+        <v>1.062834412891959</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1514044731330841</v>
+        <v>0.2805883555371338</v>
       </c>
       <c r="E19">
-        <v>0.09859752406445921</v>
+        <v>0.2587598467034748</v>
       </c>
       <c r="F19">
-        <v>0.6651631126001902</v>
+        <v>1.293384201735101</v>
       </c>
       <c r="G19">
-        <v>0.3919361041450884</v>
+        <v>0.6496712922868539</v>
       </c>
       <c r="H19">
-        <v>0.3115932844189331</v>
+        <v>0.7622388126676753</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1128377646502479</v>
+        <v>0.310908069293216</v>
       </c>
       <c r="K19">
-        <v>1.518416177571936</v>
+        <v>0.4641063158172187</v>
       </c>
       <c r="L19">
-        <v>0.3422140854481341</v>
+        <v>0.1559108752626202</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8589501593537783</v>
+        <v>1.869716742725181</v>
       </c>
       <c r="O19">
-        <v>1.432239932140078</v>
+        <v>2.814449401226796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.302650079078376</v>
+        <v>1.074002226194722</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1542097942606802</v>
+        <v>0.2808839841983968</v>
       </c>
       <c r="E20">
-        <v>0.09842970812730023</v>
+        <v>0.2582739089638686</v>
       </c>
       <c r="F20">
-        <v>0.6735405198738178</v>
+        <v>1.292676413634588</v>
       </c>
       <c r="G20">
-        <v>0.3983524413626327</v>
+        <v>0.6496180034830559</v>
       </c>
       <c r="H20">
-        <v>0.3127316893133667</v>
+        <v>0.761051497767383</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1115401284341218</v>
+        <v>0.3100886021165365</v>
       </c>
       <c r="K20">
-        <v>1.574888790451837</v>
+        <v>0.4817352206805197</v>
       </c>
       <c r="L20">
-        <v>0.3555906189221361</v>
+        <v>0.1597671787658186</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8457130515988176</v>
+        <v>1.863877082323164</v>
       </c>
       <c r="O20">
-        <v>1.448342366608529</v>
+        <v>2.811933199463681</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.452659510745576</v>
+        <v>1.111949394656136</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1638176109909466</v>
+        <v>0.2819880777231987</v>
       </c>
       <c r="E21">
-        <v>0.0980182633302551</v>
+        <v>0.2567360953638484</v>
       </c>
       <c r="F21">
-        <v>0.7031857525829892</v>
+        <v>1.290984244384539</v>
       </c>
       <c r="G21">
-        <v>0.4210107262490794</v>
+        <v>0.6498630135768337</v>
       </c>
       <c r="H21">
-        <v>0.3171989790442211</v>
+        <v>0.7573922845244851</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1073440042964293</v>
+        <v>0.3074375177051749</v>
       </c>
       <c r="K21">
-        <v>1.764786453258836</v>
+        <v>0.5408426134054594</v>
       </c>
       <c r="L21">
-        <v>0.4006497099718445</v>
+        <v>0.172747670056566</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8026832442445375</v>
+        <v>1.844923361893652</v>
       </c>
       <c r="O21">
-        <v>1.506112121360673</v>
+        <v>2.805059051072163</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.551491269290182</v>
+        <v>1.137062935956521</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1702389132893245</v>
+        <v>0.2827918420702531</v>
       </c>
       <c r="E22">
-        <v>0.09786628000635922</v>
+        <v>0.2558015763138446</v>
       </c>
       <c r="F22">
-        <v>0.7237401241797059</v>
+        <v>1.290388634615425</v>
       </c>
       <c r="G22">
-        <v>0.4366923286141144</v>
+        <v>0.6503390097941946</v>
       </c>
       <c r="H22">
-        <v>0.3206207267150205</v>
+        <v>0.7552462984989177</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.104726219371079</v>
+        <v>0.3057809264513605</v>
       </c>
       <c r="K22">
-        <v>1.889063682899035</v>
+        <v>0.5793766869228989</v>
       </c>
       <c r="L22">
-        <v>0.4301991519496795</v>
+        <v>0.1812479262641347</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7756742534019878</v>
+        <v>1.833032718488532</v>
       </c>
       <c r="O22">
-        <v>1.546763033190842</v>
+        <v>2.80174268019843</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.498666152482883</v>
+        <v>1.123630980603082</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1667983412165626</v>
+        <v>0.2823553659247011</v>
       </c>
       <c r="E23">
-        <v>0.09793647853713061</v>
+        <v>0.256293904498154</v>
       </c>
       <c r="F23">
-        <v>0.7126577930687787</v>
+        <v>1.290659885723883</v>
       </c>
       <c r="G23">
-        <v>0.4282393631296344</v>
+        <v>0.6500560717083061</v>
       </c>
       <c r="H23">
-        <v>0.3187469884958745</v>
+        <v>0.7563692142319525</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1061118079241137</v>
+        <v>0.3066581308442959</v>
       </c>
       <c r="K23">
-        <v>1.822715820981529</v>
+        <v>0.5588193773593275</v>
       </c>
       <c r="L23">
-        <v>0.4144178832591336</v>
+        <v>0.1767097115810685</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7899851710822858</v>
+        <v>1.839333543563079</v>
       </c>
       <c r="O23">
-        <v>1.524791301940581</v>
+        <v>2.803405141732725</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.300210688781675</v>
+        <v>1.073387335360593</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1540550687778079</v>
+        <v>0.2808673316965127</v>
       </c>
       <c r="E24">
-        <v>0.09843835876277218</v>
+        <v>0.2583002369842937</v>
       </c>
       <c r="F24">
-        <v>0.6730749913618155</v>
+        <v>1.292712699322607</v>
       </c>
       <c r="G24">
-        <v>0.3979960786275285</v>
+        <v>0.6496193340817484</v>
       </c>
       <c r="H24">
-        <v>0.3126668144167155</v>
+        <v>0.7611154568425604</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1116107787652165</v>
+        <v>0.3101332184644221</v>
       </c>
       <c r="K24">
-        <v>1.571787116843154</v>
+        <v>0.4807675788677557</v>
       </c>
       <c r="L24">
-        <v>0.3548556435733445</v>
+        <v>0.1595553167352932</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8464346242353713</v>
+        <v>1.864195259698352</v>
       </c>
       <c r="O24">
-        <v>1.447444698291321</v>
+        <v>2.812065430202978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.089133185583307</v>
+        <v>1.020558919923559</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1408800415828395</v>
+        <v>0.2796177765033647</v>
       </c>
       <c r="E25">
-        <v>0.09946043219587608</v>
+        <v>0.2607683614505767</v>
       </c>
       <c r="F25">
-        <v>0.6350437673235447</v>
+        <v>1.297123731011261</v>
       </c>
       <c r="G25">
-        <v>0.3687856310962019</v>
+        <v>0.6505055434513736</v>
       </c>
       <c r="H25">
-        <v>0.3081161734901414</v>
+        <v>0.7672919792986406</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.118060975601523</v>
+        <v>0.3142090425246273</v>
       </c>
       <c r="K25">
-        <v>1.301519999947345</v>
+        <v>0.3961901940039354</v>
       </c>
       <c r="L25">
-        <v>0.2909490697398525</v>
+        <v>0.1411299560608654</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9118736359870212</v>
+        <v>1.893146730403689</v>
       </c>
       <c r="O25">
-        <v>1.375419179201884</v>
+        <v>2.826465353883492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_159/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_159/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9828542969916043</v>
+        <v>0.9358287438334685</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2790060750674499</v>
+        <v>0.1316269522746794</v>
       </c>
       <c r="E2">
-        <v>0.2628485844196806</v>
+        <v>0.1006041840778931</v>
       </c>
       <c r="F2">
-        <v>1.302266585538554</v>
+        <v>0.610634379960409</v>
       </c>
       <c r="G2">
-        <v>0.652325958620132</v>
+        <v>0.3498596484838927</v>
       </c>
       <c r="H2">
-        <v>0.7727522898643855</v>
+        <v>0.3063386287499625</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3174931185742711</v>
+        <v>0.1232400374011888</v>
       </c>
       <c r="K2">
-        <v>0.3335988923132902</v>
+        <v>1.102495526201523</v>
       </c>
       <c r="L2">
-        <v>0.1276347857931341</v>
+        <v>0.2440840575511913</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.916304565947325</v>
+        <v>0.9637385888291661</v>
       </c>
       <c r="O2">
-        <v>2.8414267891999</v>
+        <v>1.331125779068472</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9580547559902755</v>
+        <v>0.8330383205527312</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.278785218416651</v>
+        <v>0.125615157351497</v>
       </c>
       <c r="E3">
-        <v>0.264423178977264</v>
+        <v>0.1016128734367214</v>
       </c>
       <c r="F3">
-        <v>1.306937131406613</v>
+        <v>0.596138126348535</v>
       </c>
       <c r="G3">
-        <v>0.6542885991542775</v>
+        <v>0.3384799534171918</v>
       </c>
       <c r="H3">
-        <v>0.7770238932122311</v>
+        <v>0.3060439750431314</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3198960946071354</v>
+        <v>0.1270103439475401</v>
       </c>
       <c r="K3">
-        <v>0.2909906278841277</v>
+        <v>0.9674292958419812</v>
       </c>
       <c r="L3">
-        <v>0.1185356960727404</v>
+        <v>0.2123938564978261</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.933150029894559</v>
+        <v>1.001077576881585</v>
       </c>
       <c r="O3">
-        <v>2.85428989063206</v>
+        <v>1.306062239234635</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9432028571903288</v>
+        <v>0.7704056005590019</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2787456415265339</v>
+        <v>0.122045490529068</v>
       </c>
       <c r="E4">
-        <v>0.2654715403786536</v>
+        <v>0.1023441227204192</v>
       </c>
       <c r="F4">
-        <v>1.310390589078438</v>
+        <v>0.5881861468653327</v>
       </c>
       <c r="G4">
-        <v>0.6558534163982159</v>
+        <v>0.3321555299059398</v>
       </c>
       <c r="H4">
-        <v>0.7799290108576145</v>
+        <v>0.3062898133471919</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3214592418078386</v>
+        <v>0.1294513190678979</v>
       </c>
       <c r="K4">
-        <v>0.2647389308204993</v>
+        <v>0.8843568205860208</v>
       </c>
       <c r="L4">
-        <v>0.1129727470878095</v>
+        <v>0.1929566402939997</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.944061902427041</v>
+        <v>1.025050097623385</v>
       </c>
       <c r="O4">
-        <v>2.863533033390681</v>
+        <v>1.292962890626598</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9372456096342887</v>
+        <v>0.7449946051985989</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.278753743811798</v>
+        <v>0.1206205482361398</v>
       </c>
       <c r="E5">
-        <v>0.2659193022151278</v>
+        <v>0.1026697831190173</v>
       </c>
       <c r="F5">
-        <v>1.311945382481511</v>
+        <v>0.5851757151019967</v>
       </c>
       <c r="G5">
-        <v>0.6565816047809818</v>
+        <v>0.3297377778686155</v>
       </c>
       <c r="H5">
-        <v>0.7811839649513033</v>
+        <v>0.306494184889452</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3221183247255919</v>
+        <v>0.1304773556951035</v>
       </c>
       <c r="K5">
-        <v>0.2540192306992992</v>
+        <v>0.85046222433823</v>
       </c>
       <c r="L5">
-        <v>0.1107119981586067</v>
+        <v>0.1850391742142676</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.94865167845947</v>
+        <v>1.035077250445866</v>
       </c>
       <c r="O5">
-        <v>2.86763824758971</v>
+        <v>1.28817886756228</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9362621727317446</v>
+        <v>0.7407816702967978</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2787565550637296</v>
+        <v>0.1203857087762259</v>
       </c>
       <c r="E6">
-        <v>0.2659948947939128</v>
+        <v>0.1027255165541732</v>
       </c>
       <c r="F6">
-        <v>1.312212468024335</v>
+        <v>0.5846894881130709</v>
       </c>
       <c r="G6">
-        <v>0.6567079881492717</v>
+        <v>0.3293457419259838</v>
       </c>
       <c r="H6">
-        <v>0.7813966460143362</v>
+        <v>0.3065343246987808</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3222290999376112</v>
+        <v>0.130649609540975</v>
       </c>
       <c r="K6">
-        <v>0.2522379300091586</v>
+        <v>0.8448313436937838</v>
       </c>
       <c r="L6">
-        <v>0.1103369821801721</v>
+        <v>0.1837246357163309</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.949422453034426</v>
+        <v>1.036757703249151</v>
       </c>
       <c r="O6">
-        <v>2.868340372509095</v>
+        <v>1.287417330679105</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9431221300049231</v>
+        <v>0.7700624551876274</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2787456525789835</v>
+        <v>0.1220261540001033</v>
       </c>
       <c r="E7">
-        <v>0.2654774958095185</v>
+        <v>0.1023484032633331</v>
       </c>
       <c r="F7">
-        <v>1.310410960158542</v>
+        <v>0.5881446266058958</v>
       </c>
       <c r="G7">
-        <v>0.6558628704513012</v>
+        <v>0.3321222866774178</v>
       </c>
       <c r="H7">
-        <v>0.7799456476141557</v>
+        <v>0.3062921517375656</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3214680409548301</v>
+        <v>0.1294650302146385</v>
       </c>
       <c r="K7">
-        <v>0.264594448992284</v>
+        <v>0.8838998839567296</v>
       </c>
       <c r="L7">
-        <v>0.1129422325022915</v>
+        <v>0.1928498513530883</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.944123222216433</v>
+        <v>1.02518428840686</v>
       </c>
       <c r="O7">
-        <v>2.863587026522538</v>
+        <v>1.292896156252766</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9742259665208621</v>
+        <v>0.9002814348644677</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2789100416739814</v>
+        <v>0.1295283226834769</v>
       </c>
       <c r="E8">
-        <v>0.2633746012924778</v>
+        <v>0.1009284652270193</v>
       </c>
       <c r="F8">
-        <v>1.303755539026618</v>
+        <v>0.6054339160960325</v>
       </c>
       <c r="G8">
-        <v>0.6529280408670033</v>
+        <v>0.3457939740410296</v>
       </c>
       <c r="H8">
-        <v>0.7741665992227382</v>
+        <v>0.3061465385368294</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3183034800431601</v>
+        <v>0.1245136685883868</v>
       </c>
       <c r="K8">
-        <v>0.3189266741529764</v>
+        <v>1.055950022739154</v>
       </c>
       <c r="L8">
-        <v>0.1244925588156462</v>
+        <v>0.2331518294264754</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.921994910343169</v>
+        <v>0.9763929061802301</v>
       </c>
       <c r="O8">
-        <v>2.845582984602984</v>
+        <v>1.321995271732504</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.038170166422731</v>
+        <v>1.159877646695207</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2799909705117045</v>
+        <v>0.1452457553893183</v>
       </c>
       <c r="E9">
-        <v>0.2598962250277719</v>
+        <v>0.09905393397018436</v>
       </c>
       <c r="F9">
-        <v>1.295343891537136</v>
+        <v>0.6472695223946801</v>
       </c>
       <c r="G9">
-        <v>0.6500256469634991</v>
+        <v>0.3782014980598802</v>
       </c>
       <c r="H9">
-        <v>0.7650698913564753</v>
+        <v>0.3093948135399103</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3127922229783078</v>
+        <v>0.1158203908550899</v>
       </c>
       <c r="K9">
-        <v>0.4247305855384411</v>
+        <v>1.392540672763033</v>
       </c>
       <c r="L9">
-        <v>0.147325768263201</v>
+        <v>0.312440103039151</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.88310876670689</v>
+        <v>0.8892434850030888</v>
       </c>
       <c r="O9">
-        <v>2.820938202118924</v>
+        <v>1.398254749460477</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.086917821664144</v>
+        <v>1.353818410367353</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2812433604755284</v>
+        <v>0.157466876777093</v>
       </c>
       <c r="E10">
-        <v>0.2577318198588809</v>
+        <v>0.09826321955153716</v>
       </c>
       <c r="F10">
-        <v>1.291982908361405</v>
+        <v>0.6834309208629321</v>
       </c>
       <c r="G10">
-        <v>0.6496310870635966</v>
+        <v>0.4059189391956153</v>
       </c>
       <c r="H10">
-        <v>0.7597442012310864</v>
+        <v>0.3141515243233357</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3091643025903323</v>
+        <v>0.1100766134863616</v>
       </c>
       <c r="K10">
-        <v>0.5019837514771268</v>
+        <v>1.639845231177873</v>
       </c>
       <c r="L10">
-        <v>0.16420543944038</v>
+        <v>0.3709902766399154</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.857279505018294</v>
+        <v>0.8307435578420552</v>
       </c>
       <c r="O10">
-        <v>2.809317132823622</v>
+        <v>1.467488073918844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.109472157096661</v>
+        <v>1.442894327818749</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2819117356934413</v>
+        <v>0.163186889541663</v>
       </c>
       <c r="E11">
-        <v>0.2568316289921828</v>
+        <v>0.09803818038823486</v>
       </c>
       <c r="F11">
-        <v>1.291064132245609</v>
+        <v>0.7011973695925846</v>
       </c>
       <c r="G11">
-        <v>0.6498287231699891</v>
+        <v>0.4194927395483035</v>
       </c>
       <c r="H11">
-        <v>0.7576150773379737</v>
+        <v>0.3168807348426412</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.307604869192506</v>
+        <v>0.107608698038959</v>
       </c>
       <c r="K11">
-        <v>0.5370180480360887</v>
+        <v>1.752472634446917</v>
       </c>
       <c r="L11">
-        <v>0.1719055547347637</v>
+        <v>0.3977243809320754</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.84612258162532</v>
+        <v>0.8054073902238201</v>
       </c>
       <c r="O11">
-        <v>2.80543590072574</v>
+        <v>1.502203414277375</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.118066730227866</v>
+        <v>1.476760230094044</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2821789396567169</v>
+        <v>0.1653772012533352</v>
       </c>
       <c r="E12">
-        <v>0.2565028494929127</v>
+        <v>0.09797296718441117</v>
       </c>
       <c r="F12">
-        <v>1.290803777618962</v>
+        <v>0.7081264530601601</v>
       </c>
       <c r="G12">
-        <v>0.649957757837015</v>
+        <v>0.4247817524804134</v>
       </c>
       <c r="H12">
-        <v>0.7568509533788443</v>
+        <v>0.3179999836738716</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3070273942970125</v>
+        <v>0.1066954907747384</v>
       </c>
       <c r="K12">
-        <v>0.5502683652751159</v>
+        <v>1.795150174803211</v>
       </c>
       <c r="L12">
-        <v>0.1748243114716246</v>
+        <v>0.407865043241415</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.841982916813667</v>
+        <v>0.7960035614482877</v>
       </c>
       <c r="O12">
-        <v>2.804167988624386</v>
+        <v>1.515843355275422</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.11621335688352</v>
+        <v>1.469460402413546</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.282120766493847</v>
+        <v>0.1649043797288101</v>
       </c>
       <c r="E13">
-        <v>0.2565731202941777</v>
+        <v>0.09798611179571814</v>
       </c>
       <c r="F13">
-        <v>1.290855957890031</v>
+        <v>0.7066249987264968</v>
       </c>
       <c r="G13">
-        <v>0.6499275581897166</v>
+        <v>0.4236358781775778</v>
       </c>
       <c r="H13">
-        <v>0.7570136487861703</v>
+        <v>0.3177550455438052</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3071511839217909</v>
+        <v>0.1068912091368137</v>
       </c>
       <c r="K13">
-        <v>0.5474154149846413</v>
+        <v>1.785957396569955</v>
       </c>
       <c r="L13">
-        <v>0.1741955795796031</v>
+        <v>0.4056802665803048</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.842870678188358</v>
+        <v>0.7980202597074388</v>
       </c>
       <c r="O13">
-        <v>2.804432083850543</v>
+        <v>1.51288326844525</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.110178165053583</v>
+        <v>1.445677721131233</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2819334365131425</v>
+        <v>0.1633665944873144</v>
       </c>
       <c r="E14">
-        <v>0.2568043377351383</v>
+        <v>0.09803241056664547</v>
       </c>
       <c r="F14">
-        <v>1.291040958755268</v>
+        <v>0.7017633235343936</v>
       </c>
       <c r="G14">
-        <v>0.6498382530049156</v>
+        <v>0.4199248252184731</v>
       </c>
       <c r="H14">
-        <v>0.7575513685537345</v>
+        <v>0.3169710709521922</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3075570986206948</v>
+        <v>0.1075331373547552</v>
       </c>
       <c r="K14">
-        <v>0.5381084930853319</v>
+        <v>1.755983122552749</v>
       </c>
       <c r="L14">
-        <v>0.1721456258125897</v>
+        <v>0.398558301431251</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.845780301216404</v>
+        <v>0.8046298737828153</v>
       </c>
       <c r="O14">
-        <v>2.805327545354061</v>
+        <v>1.50331549677648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.10648841202962</v>
+        <v>1.43112807518915</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2818205259174391</v>
+        <v>0.1624278529315575</v>
       </c>
       <c r="E15">
-        <v>0.2569475402713213</v>
+        <v>0.09806339457085933</v>
       </c>
       <c r="F15">
-        <v>1.291165675650944</v>
+        <v>0.6988119925563936</v>
       </c>
       <c r="G15">
-        <v>0.6497906076080824</v>
+        <v>0.4176714017972074</v>
       </c>
       <c r="H15">
-        <v>0.7578862213826767</v>
+        <v>0.3165021687035505</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3078074316403541</v>
+        <v>0.1079291309175474</v>
       </c>
       <c r="K15">
-        <v>0.5324055738034588</v>
+        <v>1.737626958087986</v>
       </c>
       <c r="L15">
-        <v>0.1708903404813924</v>
+        <v>0.3941981957991061</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.847573626233554</v>
+        <v>0.808703466197052</v>
       </c>
       <c r="O15">
-        <v>2.805902317767107</v>
+        <v>1.497520240026347</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.08545140225155</v>
+        <v>1.348015260356476</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2812016588035675</v>
+        <v>0.1570963907538498</v>
       </c>
       <c r="E16">
-        <v>0.2577923449995883</v>
+        <v>0.09828069013813234</v>
       </c>
       <c r="F16">
-        <v>1.292055215567572</v>
+        <v>0.6822973431106405</v>
       </c>
       <c r="G16">
-        <v>0.6496257567291792</v>
+        <v>0.4050521312817068</v>
       </c>
       <c r="H16">
-        <v>0.7598892444262049</v>
+        <v>0.3139849155636938</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3092680426341712</v>
+        <v>0.1102408561913375</v>
       </c>
       <c r="K16">
-        <v>0.4996919249666121</v>
+        <v>1.632488139171045</v>
       </c>
       <c r="L16">
-        <v>0.1637026339619041</v>
+        <v>0.3692453700188878</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.858020563818052</v>
+        <v>0.8324255950904842</v>
       </c>
       <c r="O16">
-        <v>2.809599036607693</v>
+        <v>1.465286750979487</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.072642372244957</v>
+        <v>1.297254845213132</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2808472139184204</v>
+        <v>0.1538676545885949</v>
       </c>
       <c r="E17">
-        <v>0.2583321996384331</v>
+        <v>0.09844892971188557</v>
       </c>
       <c r="F17">
-        <v>1.292757070994426</v>
+        <v>0.6725116462728948</v>
       </c>
       <c r="G17">
-        <v>0.649621191214564</v>
+        <v>0.3975648088763535</v>
       </c>
       <c r="H17">
-        <v>0.7611931616103078</v>
+        <v>0.3125885539653126</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3101873496463234</v>
+        <v>0.1116964962199329</v>
       </c>
       <c r="K17">
-        <v>0.4795947877655919</v>
+        <v>1.568028159653409</v>
       </c>
       <c r="L17">
-        <v>0.1592985672754423</v>
+        <v>0.3539649622878329</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.86458125517931</v>
+        <v>0.8473099479208948</v>
       </c>
       <c r="O17">
-        <v>2.81222659681049</v>
+        <v>1.446358850133208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.065310653599511</v>
+        <v>1.268138140391613</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.280652637532981</v>
+        <v>0.1520256098087884</v>
       </c>
       <c r="E18">
-        <v>0.2586506566766626</v>
+        <v>0.0985583314765428</v>
       </c>
       <c r="F18">
-        <v>1.293218200447804</v>
+        <v>0.6670063237249764</v>
       </c>
       <c r="G18">
-        <v>0.6496540640695372</v>
+        <v>0.3933484876026512</v>
       </c>
       <c r="H18">
-        <v>0.7619707765023946</v>
+        <v>0.3118383358228982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3107246706520961</v>
+        <v>0.1125473550654181</v>
       </c>
       <c r="K18">
-        <v>0.4680252760202563</v>
+        <v>1.530963848437494</v>
       </c>
       <c r="L18">
-        <v>0.156767497068401</v>
+        <v>0.3451852502391688</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.868410603837887</v>
+        <v>0.8559906732578497</v>
       </c>
       <c r="O18">
-        <v>2.813870183614142</v>
+        <v>1.43577322295323</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.062834412891959</v>
+        <v>1.258292986893025</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2805883555371338</v>
+        <v>0.1514044731329705</v>
       </c>
       <c r="E19">
-        <v>0.2587598467034748</v>
+        <v>0.09859752406445921</v>
       </c>
       <c r="F19">
-        <v>1.293384201735101</v>
+        <v>0.6651631126001831</v>
       </c>
       <c r="G19">
-        <v>0.6496712922868539</v>
+        <v>0.3919361041451452</v>
       </c>
       <c r="H19">
-        <v>0.7622388126676753</v>
+        <v>0.3115932844189331</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.310908069293216</v>
+        <v>0.1128377646502621</v>
       </c>
       <c r="K19">
-        <v>0.4641063158172187</v>
+        <v>1.518416177571794</v>
       </c>
       <c r="L19">
-        <v>0.1559108752626202</v>
+        <v>0.3422140854480773</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.869716742725181</v>
+        <v>0.8589501593537747</v>
       </c>
       <c r="O19">
-        <v>2.814449401226796</v>
+        <v>1.432239932139908</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.074002226194722</v>
+        <v>1.302650079078404</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2808839841983968</v>
+        <v>0.1542097942607228</v>
       </c>
       <c r="E20">
-        <v>0.2582739089638686</v>
+        <v>0.09842970812728957</v>
       </c>
       <c r="F20">
-        <v>1.292676413634588</v>
+        <v>0.6735405198737823</v>
       </c>
       <c r="G20">
-        <v>0.6496180034830559</v>
+        <v>0.3983524413626469</v>
       </c>
       <c r="H20">
-        <v>0.761051497767383</v>
+        <v>0.3127316893133667</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3100886021165365</v>
+        <v>0.1115401284341875</v>
       </c>
       <c r="K20">
-        <v>0.4817352206805197</v>
+        <v>1.574888790451837</v>
       </c>
       <c r="L20">
-        <v>0.1597671787658186</v>
+        <v>0.3555906189222782</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.863877082323164</v>
+        <v>0.8457130515988212</v>
       </c>
       <c r="O20">
-        <v>2.811933199463681</v>
+        <v>1.448342366608529</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.111949394656136</v>
+        <v>1.452659510745434</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2819880777231987</v>
+        <v>0.1638176109909466</v>
       </c>
       <c r="E21">
-        <v>0.2567360953638484</v>
+        <v>0.09801826333023378</v>
       </c>
       <c r="F21">
-        <v>1.290984244384539</v>
+        <v>0.7031857525829892</v>
       </c>
       <c r="G21">
-        <v>0.6498630135768337</v>
+        <v>0.4210107262490794</v>
       </c>
       <c r="H21">
-        <v>0.7573922845244851</v>
+        <v>0.3171989790443348</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3074375177051749</v>
+        <v>0.1073440042964151</v>
       </c>
       <c r="K21">
-        <v>0.5408426134054594</v>
+        <v>1.764786453258864</v>
       </c>
       <c r="L21">
-        <v>0.172747670056566</v>
+        <v>0.4006497099718445</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.844923361893652</v>
+        <v>0.8026832442445375</v>
       </c>
       <c r="O21">
-        <v>2.805059051072163</v>
+        <v>1.506112121360673</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.137062935956521</v>
+        <v>1.55149126929021</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2827918420702531</v>
+        <v>0.1702389132893956</v>
       </c>
       <c r="E22">
-        <v>0.2558015763138446</v>
+        <v>0.09786628000636277</v>
       </c>
       <c r="F22">
-        <v>1.290388634615425</v>
+        <v>0.7237401241797201</v>
       </c>
       <c r="G22">
-        <v>0.6503390097941946</v>
+        <v>0.4366923286141287</v>
       </c>
       <c r="H22">
-        <v>0.7552462984989177</v>
+        <v>0.3206207267150063</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3057809264513605</v>
+        <v>0.1047262193710505</v>
       </c>
       <c r="K22">
-        <v>0.5793766869228989</v>
+        <v>1.889063682899092</v>
       </c>
       <c r="L22">
-        <v>0.1812479262641347</v>
+        <v>0.43019915194958</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.833032718488532</v>
+        <v>0.7756742534019843</v>
       </c>
       <c r="O22">
-        <v>2.80174268019843</v>
+        <v>1.546763033190842</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.123630980603082</v>
+        <v>1.498666152482855</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2823553659247011</v>
+        <v>0.1667983412164915</v>
       </c>
       <c r="E23">
-        <v>0.256293904498154</v>
+        <v>0.0979364785371537</v>
       </c>
       <c r="F23">
-        <v>1.290659885723883</v>
+        <v>0.7126577930687574</v>
       </c>
       <c r="G23">
-        <v>0.6500560717083061</v>
+        <v>0.4282393631296628</v>
       </c>
       <c r="H23">
-        <v>0.7563692142319525</v>
+        <v>0.3187469884958745</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3066581308442959</v>
+        <v>0.1061118079240551</v>
       </c>
       <c r="K23">
-        <v>0.5588193773593275</v>
+        <v>1.822715820981529</v>
       </c>
       <c r="L23">
-        <v>0.1767097115810685</v>
+        <v>0.4144178832590768</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.839333543563079</v>
+        <v>0.7899851710822752</v>
       </c>
       <c r="O23">
-        <v>2.803405141732725</v>
+        <v>1.524791301940553</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.073387335360593</v>
+        <v>1.300210688781561</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2808673316965127</v>
+        <v>0.1540550687775522</v>
       </c>
       <c r="E24">
-        <v>0.2583002369842937</v>
+        <v>0.09843835876277396</v>
       </c>
       <c r="F24">
-        <v>1.292712699322607</v>
+        <v>0.6730749913617942</v>
       </c>
       <c r="G24">
-        <v>0.6496193340817484</v>
+        <v>0.3979960786275285</v>
       </c>
       <c r="H24">
-        <v>0.7611154568425604</v>
+        <v>0.3126668144167013</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3101332184644221</v>
+        <v>0.1116107787652396</v>
       </c>
       <c r="K24">
-        <v>0.4807675788677557</v>
+        <v>1.571787116843154</v>
       </c>
       <c r="L24">
-        <v>0.1595553167352932</v>
+        <v>0.3548556435733872</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.864195259698352</v>
+        <v>0.8464346242353571</v>
       </c>
       <c r="O24">
-        <v>2.812065430202978</v>
+        <v>1.447444698291292</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.020558919923559</v>
+        <v>1.089133185583421</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2796177765033647</v>
+        <v>0.1408800415829887</v>
       </c>
       <c r="E25">
-        <v>0.2607683614505767</v>
+        <v>0.0994604321958743</v>
       </c>
       <c r="F25">
-        <v>1.297123731011261</v>
+        <v>0.6350437673235447</v>
       </c>
       <c r="G25">
-        <v>0.6505055434513736</v>
+        <v>0.3687856310962729</v>
       </c>
       <c r="H25">
-        <v>0.7672919792986406</v>
+        <v>0.3081161734901414</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3142090425246273</v>
+        <v>0.1180609756015283</v>
       </c>
       <c r="K25">
-        <v>0.3961901940039354</v>
+        <v>1.301519999947374</v>
       </c>
       <c r="L25">
-        <v>0.1411299560608654</v>
+        <v>0.2909490697398525</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.893146730403689</v>
+        <v>0.911873635987007</v>
       </c>
       <c r="O25">
-        <v>2.826465353883492</v>
+        <v>1.375419179201884</v>
       </c>
     </row>
   </sheetData>
